--- a/docs/StructureDefinition-fr-core-organization-description.xlsx
+++ b/docs/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-18T23:49:30+02:00</t>
+    <t>2025-05-24T18:31:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-fr-core-organization-description.xlsx
+++ b/docs/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-24T18:31:28+02:00</t>
+    <t>2025-06-03T19:04:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
